--- a/formats/excel/Formats RSA 14.xlsx
+++ b/formats/excel/Formats RSA 14.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="27815"/>
-  <workbookPr autoCompressPictures="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/guillaumepressiat/Documents/R/pmeasyr_versions/pmeasyr_0.2/formats/excel/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="1460" yWindow="460" windowWidth="27340" windowHeight="17540"/>
+    <workbookView windowWidth="24240" windowHeight="12855"/>
   </bookViews>
   <sheets>
     <sheet name="Fixe" sheetId="1" r:id="rId1"/>
@@ -17,493 +12,828 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Fixe!$A$1:$C$73</definedName>
   </definedNames>
-  <calcPr calcId="150001" concurrentCalc="0"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
-    </ext>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150">
+  <si>
+    <t>longueur</t>
+  </si>
+  <si>
+    <t>nom</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>position</t>
+  </si>
+  <si>
+    <t>verif</t>
+  </si>
+  <si>
+    <t>libelle</t>
+  </si>
+  <si>
+    <t>NOFINESS</t>
+  </si>
+  <si>
+    <t>c</t>
+  </si>
+  <si>
+    <t>Finess de l'établissement</t>
+  </si>
+  <si>
+    <t>NOVRSA</t>
+  </si>
+  <si>
+    <t>Numéro de version du RSA</t>
+  </si>
+  <si>
+    <t>CLE_RSA</t>
+  </si>
+  <si>
+    <t>Clé RSA</t>
+  </si>
+  <si>
+    <t>NOVRSS</t>
+  </si>
+  <si>
+    <t>Numéro de version du RSS groupé</t>
+  </si>
+  <si>
+    <t>NOSEQTA</t>
+  </si>
+  <si>
+    <t>Numéro séquentiel des tarifs</t>
+  </si>
+  <si>
+    <t>GPVCLASS</t>
+  </si>
+  <si>
+    <t>Groupage lu : Version de la classification</t>
+  </si>
+  <si>
+    <t>GPCMD</t>
+  </si>
+  <si>
+    <t>Groupage lu : CMD du GHM</t>
+  </si>
+  <si>
+    <t>GPTYPE</t>
+  </si>
+  <si>
+    <t>Groupage lu : Type de GHM</t>
+  </si>
+  <si>
+    <t>GPNUM</t>
+  </si>
+  <si>
+    <t>Groupage lu : Numéro du GHM</t>
+  </si>
+  <si>
+    <t>GPCOMPX</t>
+  </si>
+  <si>
+    <t>Groupage lu : Niveau de sévérité du GHM</t>
+  </si>
+  <si>
+    <t>GPCDRETR</t>
+  </si>
+  <si>
+    <t>Groupage lu : Codes retours</t>
+  </si>
+  <si>
+    <t>RSAVCLASS</t>
+  </si>
+  <si>
+    <t>Gp Genrsa : Version de la classification</t>
+  </si>
+  <si>
+    <t>RSACMD</t>
+  </si>
+  <si>
+    <t>Gp Genrsa : CMD du GHM</t>
+  </si>
+  <si>
+    <t>RSATYPE</t>
+  </si>
+  <si>
+    <t>Gp Genrsa : Type de GHM</t>
+  </si>
+  <si>
+    <t>RSANUM</t>
+  </si>
+  <si>
+    <t>Gp Genrsa : Numéro du GHM</t>
+  </si>
+  <si>
+    <t>RSACOMPX</t>
+  </si>
+  <si>
+    <t>Gp Genrsa : Niveau de sévérité du GHM</t>
+  </si>
+  <si>
+    <t>RSACDRETR</t>
+  </si>
+  <si>
+    <t>Gp Genrsa : Codes retours</t>
+  </si>
+  <si>
+    <t>NBRUM</t>
+  </si>
+  <si>
+    <t>i</t>
+  </si>
+  <si>
+    <t>Nombre de RUM du séjour</t>
+  </si>
+  <si>
+    <t>AGEAN</t>
+  </si>
+  <si>
+    <t>Âge en années</t>
+  </si>
+  <si>
+    <t>AGEJR</t>
+  </si>
+  <si>
+    <t>Âge en jours</t>
+  </si>
+  <si>
+    <t>SEXE</t>
+  </si>
+  <si>
+    <t>Sexe</t>
+  </si>
+  <si>
+    <t>ECHPMSI</t>
+  </si>
+  <si>
+    <t>Mode d'entrée dans le champ PMSI</t>
+  </si>
+  <si>
+    <t>PROV</t>
+  </si>
+  <si>
+    <t>Provenance</t>
+  </si>
+  <si>
+    <t>MOISSOR</t>
+  </si>
+  <si>
+    <t>Mois de sortie</t>
+  </si>
+  <si>
+    <t>ANSOR</t>
+  </si>
+  <si>
+    <t>Année de sortie</t>
+  </si>
+  <si>
+    <t>SCHPMSI</t>
+  </si>
+  <si>
+    <t>Mode de sortie du champ PMSI</t>
+  </si>
+  <si>
+    <t>DEST</t>
+  </si>
+  <si>
+    <t>Destination</t>
+  </si>
+  <si>
+    <t>TYPESEJ</t>
+  </si>
+  <si>
+    <t>Type de séjour</t>
+  </si>
+  <si>
+    <t>DUREE</t>
+  </si>
+  <si>
+    <t>Durée du séjour</t>
+  </si>
+  <si>
+    <t>CDGEO</t>
+  </si>
+  <si>
+    <t>Code géographique</t>
+  </si>
+  <si>
+    <t>POIDS</t>
+  </si>
+  <si>
+    <t>Poids à l'entrée (grammes)</t>
+  </si>
+  <si>
+    <t>AGEGEST</t>
+  </si>
+  <si>
+    <t>Âge gestationnel</t>
+  </si>
+  <si>
+    <t>DELAIREG</t>
+  </si>
+  <si>
+    <t>Délai depuis les dernières rêgles / date d'entrée</t>
+  </si>
+  <si>
+    <t>NBSEANCE</t>
+  </si>
+  <si>
+    <t>Nombre de séances</t>
+  </si>
+  <si>
+    <t>NOGHS</t>
+  </si>
+  <si>
+    <t>Numéro du GHS</t>
+  </si>
+  <si>
+    <t>NBJRBS</t>
+  </si>
+  <si>
+    <t>Nombre de jours EXH</t>
+  </si>
+  <si>
+    <t>SEJINFBI</t>
+  </si>
+  <si>
+    <t>Séjour inférieur à la borne extrême basse</t>
+  </si>
+  <si>
+    <t>NBJREXB</t>
+  </si>
+  <si>
+    <t>Nombre de jours EXB</t>
+  </si>
+  <si>
+    <t>FILLERII</t>
+  </si>
+  <si>
+    <t>UHCD</t>
+  </si>
+  <si>
+    <t>Top UHCD</t>
+  </si>
+  <si>
+    <t>CONFCDSEJ</t>
+  </si>
+  <si>
+    <t>Confirmation codage du séjour</t>
+  </si>
+  <si>
+    <t>NBAUTPGV</t>
+  </si>
+  <si>
+    <t>Nb autorisations UM à portée globale valide</t>
+  </si>
+  <si>
+    <t>NBSUPHS</t>
+  </si>
+  <si>
+    <t>HEMODIALYSE HORS SEANCES</t>
+  </si>
+  <si>
+    <t>NBSUPAHS</t>
+  </si>
+  <si>
+    <t>DIALYSE PERITONALE AUTO HORS SEANCES</t>
+  </si>
+  <si>
+    <t>NBSUPCHS</t>
+  </si>
+  <si>
+    <t>DIALYSE CONTINUE AMBULATOIRE HORS SEANCES</t>
+  </si>
   <si>
     <t>NBSUPEHS</t>
   </si>
   <si>
+    <t>NBACTE9615</t>
+  </si>
+  <si>
+    <t>Nombre d'actes menant dans le GHS 9615</t>
+  </si>
+  <si>
+    <t>NBSUPREAPED</t>
+  </si>
+  <si>
+    <t>RADIOTHERAPIE PEDIAT.</t>
+  </si>
+  <si>
+    <t>NBSUPATPART</t>
+  </si>
+  <si>
+    <t>SUPPLEMENTS ANTEPARTUM</t>
+  </si>
+  <si>
+    <t>NB_RDTH</t>
+  </si>
+  <si>
+    <t>ZONES DE SUPPLEMENTS DE RADIOTHERAPIE</t>
+  </si>
+  <si>
+    <t>VALVAORT</t>
+  </si>
+  <si>
+    <t>Pose de valve aortique</t>
+  </si>
+  <si>
+    <t>FILLERI</t>
+  </si>
+  <si>
+    <t>NBSUPCAISSON</t>
+  </si>
+  <si>
+    <t>SUPPLEMENTS CAISSON HYPERBARE</t>
+  </si>
+  <si>
+    <t>TYPRESTPO</t>
+  </si>
+  <si>
+    <t>Type de prestation prélévement d'organe</t>
+  </si>
+  <si>
+    <t>NBSUPREA</t>
+  </si>
+  <si>
+    <t>SUPPLEMENTS POUR REA</t>
+  </si>
+  <si>
+    <t>NBSUPSI</t>
+  </si>
+  <si>
+    <t>SUPPLEMENTS SOINS INTENSIFS PROVENANT DE REA</t>
+  </si>
+  <si>
+    <t>NBSUPSTF</t>
+  </si>
+  <si>
+    <t>SUPPLEMENTS POUR STF</t>
+  </si>
+  <si>
+    <t>NBSUPSRC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SUPPLEMENTS POUR SRC </t>
+  </si>
+  <si>
+    <t>NBSUPNN1</t>
+  </si>
+  <si>
+    <t>SUPPLEMENTS NN1</t>
+  </si>
+  <si>
+    <t>NBSUPNN2</t>
+  </si>
+  <si>
+    <t>SUPPLEMENTS NN2</t>
+  </si>
+  <si>
+    <t>NBSUPNN3</t>
+  </si>
+  <si>
+    <t>SUPPLEMENTS NN3</t>
+  </si>
+  <si>
+    <t>NBSUPREP</t>
+  </si>
+  <si>
+    <t>SUPPLEMENTS REP</t>
+  </si>
+  <si>
+    <t>PASLITSP</t>
+  </si>
+  <si>
+    <t>Passage dans un lit dédié SP</t>
+  </si>
+  <si>
+    <t>TYPMACHRADIO</t>
+  </si>
+  <si>
+    <t>Type de machine radiothérapie</t>
+  </si>
+  <si>
+    <t>TYPEDOSIM</t>
+  </si>
+  <si>
+    <t>Type de dosimétrie</t>
+  </si>
+  <si>
+    <t>NUMINNO</t>
+  </si>
+  <si>
+    <t>Numéro d'innovation</t>
+  </si>
+  <si>
+    <t>NBFAISC</t>
+  </si>
+  <si>
+    <t>Nombre de faisceaux</t>
+  </si>
+  <si>
+    <t>NOSEQRUM</t>
+  </si>
+  <si>
+    <t>Numéro du RUM fournissant le DP</t>
+  </si>
+  <si>
+    <t>DP</t>
+  </si>
+  <si>
+    <t>Diagnostic principal</t>
+  </si>
+  <si>
+    <t>DR</t>
+  </si>
+  <si>
+    <t>Diagnostic relié</t>
+  </si>
+  <si>
+    <t>NDAS</t>
+  </si>
+  <si>
+    <t>Nombre de DAS du séjour</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>Nombre d'actes du séjour</t>
+  </si>
+  <si>
     <t>ZA</t>
-  </si>
-  <si>
-    <t>type</t>
-  </si>
-  <si>
-    <t>longueur</t>
-  </si>
-  <si>
-    <t>nom</t>
-  </si>
-  <si>
-    <t>c</t>
-  </si>
-  <si>
-    <t>i</t>
-  </si>
-  <si>
-    <t>FILLERI</t>
-  </si>
-  <si>
-    <t>FILLERII</t>
-  </si>
-  <si>
-    <t>position</t>
-  </si>
-  <si>
-    <t>verif</t>
-  </si>
-  <si>
-    <t>NOFINESS</t>
-  </si>
-  <si>
-    <t>NOVRSA</t>
-  </si>
-  <si>
-    <t>CLE_RSA</t>
-  </si>
-  <si>
-    <t>NOVRSS</t>
-  </si>
-  <si>
-    <t>NOSEQTA</t>
-  </si>
-  <si>
-    <t>GPVCLASS</t>
-  </si>
-  <si>
-    <t>GPCMD</t>
-  </si>
-  <si>
-    <t>GPTYPE</t>
-  </si>
-  <si>
-    <t>GPNUM</t>
-  </si>
-  <si>
-    <t>GPCOMPX</t>
-  </si>
-  <si>
-    <t>GPCDRETR</t>
-  </si>
-  <si>
-    <t>RSAVCLASS</t>
-  </si>
-  <si>
-    <t>RSACMD</t>
-  </si>
-  <si>
-    <t>RSATYPE</t>
-  </si>
-  <si>
-    <t>RSANUM</t>
-  </si>
-  <si>
-    <t>RSACOMPX</t>
-  </si>
-  <si>
-    <t>RSACDRETR</t>
-  </si>
-  <si>
-    <t>NBRUM</t>
-  </si>
-  <si>
-    <t>AGEAN</t>
-  </si>
-  <si>
-    <t>AGEJR</t>
-  </si>
-  <si>
-    <t>SEXE</t>
-  </si>
-  <si>
-    <t>ECHPMSI</t>
-  </si>
-  <si>
-    <t>PROV</t>
-  </si>
-  <si>
-    <t>MOISSOR</t>
-  </si>
-  <si>
-    <t>ANSOR</t>
-  </si>
-  <si>
-    <t>SCHPMSI</t>
-  </si>
-  <si>
-    <t>DEST</t>
-  </si>
-  <si>
-    <t>TYPESEJ</t>
-  </si>
-  <si>
-    <t>DUREE</t>
-  </si>
-  <si>
-    <t>CDGEO</t>
-  </si>
-  <si>
-    <t>POIDS</t>
-  </si>
-  <si>
-    <t>AGEGEST</t>
-  </si>
-  <si>
-    <t>DELAIREG</t>
-  </si>
-  <si>
-    <t>NBSEANCE</t>
-  </si>
-  <si>
-    <t>NOGHS</t>
-  </si>
-  <si>
-    <t>NBJRBS</t>
-  </si>
-  <si>
-    <t>SEJINFBI</t>
-  </si>
-  <si>
-    <t>NBJREXB</t>
-  </si>
-  <si>
-    <t>UHCD</t>
-  </si>
-  <si>
-    <t>CONFCDSEJ</t>
-  </si>
-  <si>
-    <t>NBAUTPGV</t>
-  </si>
-  <si>
-    <t>NBSUPHS</t>
-  </si>
-  <si>
-    <t>NBSUPAHS</t>
-  </si>
-  <si>
-    <t>NBSUPCHS</t>
-  </si>
-  <si>
-    <t>NBACTE9615</t>
-  </si>
-  <si>
-    <t>NBSUPREAPED</t>
-  </si>
-  <si>
-    <t>NBSUPATPART</t>
-  </si>
-  <si>
-    <t>NB_RDTH</t>
-  </si>
-  <si>
-    <t>VALVAORT</t>
-  </si>
-  <si>
-    <t>NBSUPCAISSON</t>
-  </si>
-  <si>
-    <t>TYPRESTPO</t>
-  </si>
-  <si>
-    <t>NBSUPREA</t>
-  </si>
-  <si>
-    <t>NBSUPSI</t>
-  </si>
-  <si>
-    <t>NBSUPSTF</t>
-  </si>
-  <si>
-    <t>NBSUPSRC</t>
-  </si>
-  <si>
-    <t>NBSUPNN1</t>
-  </si>
-  <si>
-    <t>NBSUPNN2</t>
-  </si>
-  <si>
-    <t>NBSUPNN3</t>
-  </si>
-  <si>
-    <t>NBSUPREP</t>
-  </si>
-  <si>
-    <t>PASLITSP</t>
-  </si>
-  <si>
-    <t>TYPMACHRADIO</t>
-  </si>
-  <si>
-    <t>TYPEDOSIM</t>
-  </si>
-  <si>
-    <t>NUMINNO</t>
-  </si>
-  <si>
-    <t>NBFAISC</t>
-  </si>
-  <si>
-    <t>NOSEQRUM</t>
-  </si>
-  <si>
-    <t>DP</t>
-  </si>
-  <si>
-    <t>DR</t>
-  </si>
-  <si>
-    <t>NDAS</t>
-  </si>
-  <si>
-    <t>NA</t>
-  </si>
-  <si>
-    <t>libelle</t>
-  </si>
-  <si>
-    <t>Finess de l'établissement</t>
-  </si>
-  <si>
-    <t>Numéro de version du RSA</t>
-  </si>
-  <si>
-    <t>Clé RSA</t>
-  </si>
-  <si>
-    <t>Numéro de version du RSS groupé</t>
-  </si>
-  <si>
-    <t>Numéro séquentiel des tarifs</t>
-  </si>
-  <si>
-    <t>Groupage lu : Version de la classification</t>
-  </si>
-  <si>
-    <t>Groupage lu : CMD du GHM</t>
-  </si>
-  <si>
-    <t>Groupage lu : Type de GHM</t>
-  </si>
-  <si>
-    <t>Groupage lu : Numéro du GHM</t>
-  </si>
-  <si>
-    <t>Groupage lu : Niveau de sévérité du GHM</t>
-  </si>
-  <si>
-    <t>Groupage lu : Codes retours</t>
-  </si>
-  <si>
-    <t>Gp Genrsa : Version de la classification</t>
-  </si>
-  <si>
-    <t>Gp Genrsa : CMD du GHM</t>
-  </si>
-  <si>
-    <t>Gp Genrsa : Type de GHM</t>
-  </si>
-  <si>
-    <t>Gp Genrsa : Numéro du GHM</t>
-  </si>
-  <si>
-    <t>Gp Genrsa : Niveau de sévérité du GHM</t>
-  </si>
-  <si>
-    <t>Gp Genrsa : Codes retours</t>
-  </si>
-  <si>
-    <t>Nombre de RUM du séjour</t>
-  </si>
-  <si>
-    <t>Âge en années</t>
-  </si>
-  <si>
-    <t>Âge en jours</t>
-  </si>
-  <si>
-    <t>Sexe</t>
-  </si>
-  <si>
-    <t>Mode d'entrée dans le champ PMSI</t>
-  </si>
-  <si>
-    <t>Provenance</t>
-  </si>
-  <si>
-    <t>Mois de sortie</t>
-  </si>
-  <si>
-    <t>Année de sortie</t>
-  </si>
-  <si>
-    <t>Mode de sortie du champ PMSI</t>
-  </si>
-  <si>
-    <t>Destination</t>
-  </si>
-  <si>
-    <t>Type de séjour</t>
-  </si>
-  <si>
-    <t>Durée du séjour</t>
-  </si>
-  <si>
-    <t>Code géographique</t>
-  </si>
-  <si>
-    <t>Poids à l'entrée (grammes)</t>
-  </si>
-  <si>
-    <t>Âge gestationnel</t>
-  </si>
-  <si>
-    <t>Délai depuis les dernières rêgles / date d'entrée</t>
-  </si>
-  <si>
-    <t>Nombre de séances</t>
-  </si>
-  <si>
-    <t>Numéro du GHS</t>
-  </si>
-  <si>
-    <t>Nombre de jours EXH</t>
-  </si>
-  <si>
-    <t>Séjour inférieur à la borne extrême basse</t>
-  </si>
-  <si>
-    <t>Nombre de jours EXB</t>
-  </si>
-  <si>
-    <t>Top UHCD</t>
-  </si>
-  <si>
-    <t>Confirmation codage du séjour</t>
-  </si>
-  <si>
-    <t>Nb autorisations UM à portée globale valide</t>
-  </si>
-  <si>
-    <t>HEMODIALYSE HORS SEANCES</t>
-  </si>
-  <si>
-    <t>DIALYSE PERITONALE AUTO HORS SEANCES</t>
-  </si>
-  <si>
-    <t>DIALYSE CONTINUE AMBULATOIRE HORS SEANCES</t>
-  </si>
-  <si>
-    <t>Nombre d'actes menant dans le GHS 9615</t>
-  </si>
-  <si>
-    <t>RADIOTHERAPIE PEDIAT.</t>
-  </si>
-  <si>
-    <t>SUPPLEMENTS ANTEPARTUM</t>
-  </si>
-  <si>
-    <t>ZONES DE SUPPLEMENTS DE RADIOTHERAPIE</t>
-  </si>
-  <si>
-    <t>Pose de valve aortique</t>
-  </si>
-  <si>
-    <t>SUPPLEMENTS CAISSON HYPERBARE</t>
-  </si>
-  <si>
-    <t>Type de prestation prélévement d'organe</t>
-  </si>
-  <si>
-    <t>SUPPLEMENTS POUR REA</t>
-  </si>
-  <si>
-    <t>SUPPLEMENTS SOINS INTENSIFS PROVENANT DE REA</t>
-  </si>
-  <si>
-    <t>SUPPLEMENTS POUR STF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SUPPLEMENTS POUR SRC </t>
-  </si>
-  <si>
-    <t>SUPPLEMENTS NN1</t>
-  </si>
-  <si>
-    <t>SUPPLEMENTS NN2</t>
-  </si>
-  <si>
-    <t>SUPPLEMENTS NN3</t>
-  </si>
-  <si>
-    <t>SUPPLEMENTS REP</t>
-  </si>
-  <si>
-    <t>Passage dans un lit dédié SP</t>
-  </si>
-  <si>
-    <t>Type de machine radiothérapie</t>
-  </si>
-  <si>
-    <t>Type de dosimétrie</t>
-  </si>
-  <si>
-    <t>Numéro d'innovation</t>
-  </si>
-  <si>
-    <t>Numéro du RUM fournissant le DP</t>
-  </si>
-  <si>
-    <t>Diagnostic principal</t>
-  </si>
-  <si>
-    <t>Diagnostic relié</t>
-  </si>
-  <si>
-    <t>Nombre de DAS du séjour</t>
-  </si>
-  <si>
-    <t>Nombre de faisceaux</t>
-  </si>
-  <si>
-    <t>Nombre d'actes du séjour</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -511,24 +841,308 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="60% - Accent6" xfId="1" builtinId="52"/>
+    <cellStyle name="40% - Accent6" xfId="2" builtinId="51"/>
+    <cellStyle name="60% - Accent5" xfId="3" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="4" builtinId="49"/>
+    <cellStyle name="40% - Accent5" xfId="5" builtinId="47"/>
+    <cellStyle name="20% - Accent5" xfId="6" builtinId="46"/>
+    <cellStyle name="60% - Accent4" xfId="7" builtinId="44"/>
+    <cellStyle name="Accent5" xfId="8" builtinId="45"/>
+    <cellStyle name="40% - Accent4" xfId="9" builtinId="43"/>
+    <cellStyle name="Accent4" xfId="10" builtinId="41"/>
+    <cellStyle name="Linked Cell" xfId="11" builtinId="24"/>
+    <cellStyle name="40% - Accent3" xfId="12" builtinId="39"/>
+    <cellStyle name="60% - Accent2" xfId="13" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="14" builtinId="37"/>
+    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
+    <cellStyle name="20% - Accent2" xfId="16" builtinId="34"/>
+    <cellStyle name="Accent2" xfId="17" builtinId="33"/>
+    <cellStyle name="40% - Accent1" xfId="18" builtinId="31"/>
+    <cellStyle name="Accent1" xfId="19" builtinId="29"/>
+    <cellStyle name="Comma[0]" xfId="20" builtinId="6"/>
+    <cellStyle name="Neutral" xfId="21" builtinId="28"/>
+    <cellStyle name="60% - Accent1" xfId="22" builtinId="32"/>
+    <cellStyle name="Bad" xfId="23" builtinId="27"/>
+    <cellStyle name="20% - Accent4" xfId="24" builtinId="42"/>
+    <cellStyle name="Total" xfId="25" builtinId="25"/>
+    <cellStyle name="Output" xfId="26" builtinId="21"/>
+    <cellStyle name="Currency" xfId="27" builtinId="4"/>
+    <cellStyle name="20% - Accent3" xfId="28" builtinId="38"/>
+    <cellStyle name="Note" xfId="29" builtinId="10"/>
+    <cellStyle name="Input" xfId="30" builtinId="20"/>
+    <cellStyle name="Heading 4" xfId="31" builtinId="19"/>
+    <cellStyle name="Calculation" xfId="32" builtinId="22"/>
+    <cellStyle name="Good" xfId="33" builtinId="26"/>
+    <cellStyle name="Heading 3" xfId="34" builtinId="18"/>
+    <cellStyle name="CExplanatory Text" xfId="35" builtinId="53"/>
+    <cellStyle name="60% - Accent3" xfId="36" builtinId="40"/>
+    <cellStyle name="Currency[0]" xfId="37" builtinId="7"/>
+    <cellStyle name="Heading 1" xfId="38" builtinId="16"/>
+    <cellStyle name="20% - Accent6" xfId="39" builtinId="50"/>
+    <cellStyle name="Title" xfId="40" builtinId="15"/>
+    <cellStyle name="Warning Text" xfId="41" builtinId="11"/>
+    <cellStyle name="20% - Accent1" xfId="42" builtinId="30"/>
+    <cellStyle name="Hyperlink" xfId="43" builtinId="8"/>
+    <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9"/>
+    <cellStyle name="Heading 2" xfId="45" builtinId="17"/>
+    <cellStyle name="Comma" xfId="46" builtinId="3"/>
+    <cellStyle name="Check Cell" xfId="47" builtinId="23"/>
+    <cellStyle name="Percent" xfId="48" builtinId="5"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
 </styleSheet>
 </file>
 
@@ -537,7 +1151,7 @@
   <a:themeElements>
     <a:clrScheme name="Bureau">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr val="windowText" lastClr="4C4C4C"/>
       </a:dk1>
       <a:lt1>
         <a:sysClr val="window" lastClr="FFFFFF"/>
@@ -575,7 +1189,7 @@
     </a:clrScheme>
     <a:fontScheme name="Bureau">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic Light"/>
@@ -610,7 +1224,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic"/>
@@ -818,50 +1432,52 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:F74"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A34" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A74" sqref="A74"/>
+      <selection/>
+      <selection pane="bottomLeft" activeCell="D68" sqref="D68"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" outlineLevelCol="5"/>
   <cols>
-    <col min="2" max="2" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.83203125" customWidth="1"/>
-    <col min="6" max="6" width="40.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.6666666666667" customWidth="1"/>
+    <col min="4" max="4" width="17.8333333333333" customWidth="1"/>
+    <col min="6" max="6" width="40.6666666666667" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C1" t="s">
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2">
         <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -871,18 +1487,18 @@
         <v>0</v>
       </c>
       <c r="F2" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3">
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D3">
         <v>10</v>
@@ -892,18 +1508,18 @@
         <v>0</v>
       </c>
       <c r="F3" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4">
         <v>10</v>
       </c>
       <c r="B4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D4">
         <v>13</v>
@@ -913,18 +1529,18 @@
         <v>0</v>
       </c>
       <c r="F4" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D5">
         <v>23</v>
@@ -934,10 +1550,10 @@
         <v>0</v>
       </c>
       <c r="F5" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6">
         <v>3</v>
       </c>
@@ -945,7 +1561,7 @@
         <v>15</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D6">
         <v>26</v>
@@ -955,18 +1571,18 @@
         <v>0</v>
       </c>
       <c r="F6" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7">
         <v>2</v>
       </c>
       <c r="B7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D7">
         <v>29</v>
@@ -976,18 +1592,18 @@
         <v>0</v>
       </c>
       <c r="F7" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8">
         <v>2</v>
       </c>
       <c r="B8" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D8">
         <v>31</v>
@@ -997,18 +1613,18 @@
         <v>0</v>
       </c>
       <c r="F8" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9">
         <v>1</v>
       </c>
       <c r="B9" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D9">
         <v>33</v>
@@ -1018,18 +1634,18 @@
         <v>0</v>
       </c>
       <c r="F9" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10">
         <v>2</v>
       </c>
       <c r="B10" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D10">
         <v>34</v>
@@ -1039,18 +1655,18 @@
         <v>0</v>
       </c>
       <c r="F10" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11">
         <v>1</v>
       </c>
       <c r="B11" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D11">
         <v>36</v>
@@ -1060,18 +1676,18 @@
         <v>0</v>
       </c>
       <c r="F11" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12">
         <v>3</v>
       </c>
       <c r="B12" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D12">
         <v>37</v>
@@ -1081,18 +1697,18 @@
         <v>0</v>
       </c>
       <c r="F12" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13">
         <v>2</v>
       </c>
       <c r="B13" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D13">
         <v>40</v>
@@ -1102,18 +1718,18 @@
         <v>0</v>
       </c>
       <c r="F13" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14">
         <v>2</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D14">
         <v>42</v>
@@ -1123,18 +1739,18 @@
         <v>0</v>
       </c>
       <c r="F14" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15">
         <v>1</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D15">
         <v>44</v>
@@ -1144,18 +1760,18 @@
         <v>0</v>
       </c>
       <c r="F15" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16">
         <v>2</v>
       </c>
       <c r="B16" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D16">
         <v>45</v>
@@ -1165,18 +1781,18 @@
         <v>0</v>
       </c>
       <c r="F16" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17">
         <v>1</v>
       </c>
       <c r="B17" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D17">
         <v>47</v>
@@ -1186,18 +1802,18 @@
         <v>0</v>
       </c>
       <c r="F17" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18">
         <v>3</v>
       </c>
       <c r="B18" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D18">
         <v>48</v>
@@ -1207,18 +1823,18 @@
         <v>0</v>
       </c>
       <c r="F18" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19">
         <v>2</v>
       </c>
       <c r="B19" t="s">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>6</v>
+        <v>42</v>
       </c>
       <c r="D19">
         <v>51</v>
@@ -1228,18 +1844,18 @@
         <v>0</v>
       </c>
       <c r="F19" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20">
         <v>3</v>
       </c>
       <c r="B20" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>6</v>
+        <v>42</v>
       </c>
       <c r="D20">
         <v>53</v>
@@ -1249,18 +1865,18 @@
         <v>0</v>
       </c>
       <c r="F20" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21">
         <v>3</v>
       </c>
       <c r="B21" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>6</v>
+        <v>42</v>
       </c>
       <c r="D21">
         <v>56</v>
@@ -1270,18 +1886,18 @@
         <v>0</v>
       </c>
       <c r="F21" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22">
         <v>1</v>
       </c>
       <c r="B22" t="s">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D22">
         <v>59</v>
@@ -1291,18 +1907,18 @@
         <v>0</v>
       </c>
       <c r="F22" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23">
         <v>1</v>
       </c>
       <c r="B23" t="s">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D23">
         <v>60</v>
@@ -1312,18 +1928,18 @@
         <v>0</v>
       </c>
       <c r="F23" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24">
         <v>1</v>
       </c>
       <c r="B24" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D24">
         <v>61</v>
@@ -1333,18 +1949,18 @@
         <v>0</v>
       </c>
       <c r="F24" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25">
         <v>2</v>
       </c>
       <c r="B25" t="s">
-        <v>34</v>
+        <v>54</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D25">
         <v>62</v>
@@ -1354,18 +1970,18 @@
         <v>0</v>
       </c>
       <c r="F25" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
       <c r="A26">
         <v>4</v>
       </c>
       <c r="B26" t="s">
-        <v>35</v>
+        <v>56</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D26">
         <v>64</v>
@@ -1375,18 +1991,18 @@
         <v>0</v>
       </c>
       <c r="F26" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
       <c r="A27">
         <v>1</v>
       </c>
       <c r="B27" t="s">
-        <v>36</v>
+        <v>58</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D27">
         <v>68</v>
@@ -1396,18 +2012,18 @@
         <v>0</v>
       </c>
       <c r="F27" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
       <c r="A28">
         <v>1</v>
       </c>
       <c r="B28" t="s">
-        <v>37</v>
+        <v>60</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D28">
         <v>69</v>
@@ -1417,18 +2033,18 @@
         <v>0</v>
       </c>
       <c r="F28" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
       <c r="A29">
         <v>1</v>
       </c>
       <c r="B29" t="s">
-        <v>38</v>
+        <v>62</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D29">
         <v>70</v>
@@ -1438,18 +2054,18 @@
         <v>0</v>
       </c>
       <c r="F29" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
       <c r="A30">
         <v>4</v>
       </c>
       <c r="B30" t="s">
-        <v>39</v>
+        <v>64</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>6</v>
+        <v>42</v>
       </c>
       <c r="D30">
         <v>71</v>
@@ -1459,18 +2075,18 @@
         <v>0</v>
       </c>
       <c r="F30" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
       <c r="A31">
         <v>5</v>
       </c>
       <c r="B31" t="s">
-        <v>40</v>
+        <v>66</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D31">
         <v>75</v>
@@ -1480,18 +2096,18 @@
         <v>0</v>
       </c>
       <c r="F31" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
       <c r="A32">
         <v>4</v>
       </c>
       <c r="B32" t="s">
-        <v>41</v>
+        <v>68</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>6</v>
+        <v>42</v>
       </c>
       <c r="D32">
         <v>80</v>
@@ -1501,18 +2117,18 @@
         <v>0</v>
       </c>
       <c r="F32" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
       <c r="A33">
         <v>2</v>
       </c>
       <c r="B33" t="s">
-        <v>42</v>
+        <v>70</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>6</v>
+        <v>42</v>
       </c>
       <c r="D33">
         <v>84</v>
@@ -1522,18 +2138,18 @@
         <v>0</v>
       </c>
       <c r="F33" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
       <c r="A34">
         <v>3</v>
       </c>
       <c r="B34" t="s">
-        <v>43</v>
+        <v>72</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>6</v>
+        <v>42</v>
       </c>
       <c r="D34">
         <v>86</v>
@@ -1543,18 +2159,18 @@
         <v>0</v>
       </c>
       <c r="F34" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
       <c r="A35">
         <v>2</v>
       </c>
       <c r="B35" t="s">
-        <v>44</v>
+        <v>74</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>6</v>
+        <v>42</v>
       </c>
       <c r="D35">
         <v>89</v>
@@ -1564,18 +2180,18 @@
         <v>0</v>
       </c>
       <c r="F35" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
       <c r="A36">
         <v>4</v>
       </c>
       <c r="B36" t="s">
-        <v>45</v>
+        <v>76</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D36">
         <v>91</v>
@@ -1585,18 +2201,18 @@
         <v>0</v>
       </c>
       <c r="F36" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
       <c r="A37">
         <v>4</v>
       </c>
       <c r="B37" t="s">
-        <v>46</v>
+        <v>78</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>6</v>
+        <v>42</v>
       </c>
       <c r="D37">
         <v>95</v>
@@ -1606,18 +2222,18 @@
         <v>0</v>
       </c>
       <c r="F37" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
       <c r="A38">
         <v>1</v>
       </c>
       <c r="B38" t="s">
-        <v>47</v>
+        <v>80</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D38">
         <v>99</v>
@@ -1627,18 +2243,18 @@
         <v>0</v>
       </c>
       <c r="F38" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
       <c r="A39">
         <v>3</v>
       </c>
       <c r="B39" t="s">
-        <v>48</v>
+        <v>82</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>6</v>
+        <v>42</v>
       </c>
       <c r="D39">
         <v>100</v>
@@ -1648,18 +2264,18 @@
         <v>0</v>
       </c>
       <c r="F39" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
       <c r="A40">
         <v>4</v>
       </c>
       <c r="B40" t="s">
-        <v>8</v>
+        <v>84</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D40">
         <v>103</v>
@@ -1669,15 +2285,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:6">
       <c r="A41">
         <v>1</v>
       </c>
       <c r="B41" t="s">
-        <v>49</v>
+        <v>85</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D41">
         <v>107</v>
@@ -1687,18 +2303,18 @@
         <v>0</v>
       </c>
       <c r="F41" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
       <c r="A42">
         <v>1</v>
       </c>
       <c r="B42" t="s">
-        <v>50</v>
+        <v>87</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D42">
         <v>108</v>
@@ -1708,18 +2324,18 @@
         <v>0</v>
       </c>
       <c r="F42" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
       <c r="A43">
         <v>1</v>
       </c>
       <c r="B43" t="s">
-        <v>51</v>
+        <v>89</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>6</v>
+        <v>42</v>
       </c>
       <c r="D43">
         <v>109</v>
@@ -1729,18 +2345,18 @@
         <v>0</v>
       </c>
       <c r="F43" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
       <c r="A44">
         <v>3</v>
       </c>
       <c r="B44" t="s">
-        <v>52</v>
+        <v>91</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>6</v>
+        <v>42</v>
       </c>
       <c r="D44">
         <v>110</v>
@@ -1750,18 +2366,18 @@
         <v>0</v>
       </c>
       <c r="F44" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
       <c r="A45">
         <v>3</v>
       </c>
       <c r="B45" t="s">
-        <v>53</v>
+        <v>93</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>6</v>
+        <v>42</v>
       </c>
       <c r="D45">
         <v>113</v>
@@ -1771,18 +2387,18 @@
         <v>0</v>
       </c>
       <c r="F45" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
       <c r="A46">
         <v>3</v>
       </c>
       <c r="B46" t="s">
-        <v>54</v>
+        <v>95</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>6</v>
+        <v>42</v>
       </c>
       <c r="D46">
         <v>116</v>
@@ -1792,18 +2408,18 @@
         <v>0</v>
       </c>
       <c r="F46" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
       <c r="A47">
         <v>3</v>
       </c>
       <c r="B47" t="s">
-        <v>0</v>
+        <v>97</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>6</v>
+        <v>42</v>
       </c>
       <c r="D47">
         <v>119</v>
@@ -1813,18 +2429,18 @@
         <v>0</v>
       </c>
       <c r="F47" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
       <c r="A48">
         <v>3</v>
       </c>
       <c r="B48" t="s">
-        <v>55</v>
+        <v>98</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>6</v>
+        <v>42</v>
       </c>
       <c r="D48">
         <v>122</v>
@@ -1834,18 +2450,18 @@
         <v>0</v>
       </c>
       <c r="F48" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
       <c r="A49">
         <v>3</v>
       </c>
       <c r="B49" t="s">
-        <v>56</v>
+        <v>100</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>6</v>
+        <v>42</v>
       </c>
       <c r="D49">
         <v>125</v>
@@ -1855,18 +2471,18 @@
         <v>0</v>
       </c>
       <c r="F49" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
       <c r="A50">
         <v>3</v>
       </c>
       <c r="B50" t="s">
-        <v>57</v>
+        <v>102</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>6</v>
+        <v>42</v>
       </c>
       <c r="D50">
         <v>128</v>
@@ -1876,18 +2492,18 @@
         <v>0</v>
       </c>
       <c r="F50" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
       <c r="A51">
         <v>1</v>
       </c>
       <c r="B51" t="s">
-        <v>58</v>
+        <v>104</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>6</v>
+        <v>42</v>
       </c>
       <c r="D51">
         <v>131</v>
@@ -1897,18 +2513,18 @@
         <v>0</v>
       </c>
       <c r="F51" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
       <c r="A52">
         <v>1</v>
       </c>
       <c r="B52" t="s">
-        <v>59</v>
+        <v>106</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D52">
         <v>132</v>
@@ -1918,18 +2534,18 @@
         <v>0</v>
       </c>
       <c r="F52" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5">
       <c r="A53">
         <v>21</v>
       </c>
       <c r="B53" t="s">
-        <v>7</v>
+        <v>108</v>
       </c>
       <c r="C53" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D53">
         <v>133</v>
@@ -1939,15 +2555,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:6">
       <c r="A54">
         <v>3</v>
       </c>
       <c r="B54" t="s">
-        <v>60</v>
+        <v>109</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>6</v>
+        <v>42</v>
       </c>
       <c r="D54">
         <v>154</v>
@@ -1957,18 +2573,18 @@
         <v>0</v>
       </c>
       <c r="F54" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
       <c r="A55">
         <v>1</v>
       </c>
       <c r="B55" t="s">
-        <v>61</v>
+        <v>111</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D55">
         <v>157</v>
@@ -1978,18 +2594,18 @@
         <v>0</v>
       </c>
       <c r="F55" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
       <c r="A56">
         <v>3</v>
       </c>
       <c r="B56" t="s">
-        <v>62</v>
+        <v>113</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>6</v>
+        <v>42</v>
       </c>
       <c r="D56">
         <v>158</v>
@@ -1999,18 +2615,18 @@
         <v>0</v>
       </c>
       <c r="F56" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
       <c r="A57">
         <v>3</v>
       </c>
       <c r="B57" t="s">
-        <v>63</v>
+        <v>115</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>6</v>
+        <v>42</v>
       </c>
       <c r="D57">
         <v>161</v>
@@ -2020,18 +2636,18 @@
         <v>0</v>
       </c>
       <c r="F57" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
       <c r="A58">
         <v>3</v>
       </c>
       <c r="B58" t="s">
-        <v>64</v>
+        <v>117</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>6</v>
+        <v>42</v>
       </c>
       <c r="D58">
         <v>164</v>
@@ -2041,18 +2657,18 @@
         <v>0</v>
       </c>
       <c r="F58" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
       <c r="A59">
         <v>3</v>
       </c>
       <c r="B59" t="s">
-        <v>65</v>
+        <v>119</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>6</v>
+        <v>42</v>
       </c>
       <c r="D59">
         <v>167</v>
@@ -2062,18 +2678,18 @@
         <v>0</v>
       </c>
       <c r="F59" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
       <c r="A60">
         <v>3</v>
       </c>
       <c r="B60" t="s">
-        <v>66</v>
+        <v>121</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>6</v>
+        <v>42</v>
       </c>
       <c r="D60">
         <v>170</v>
@@ -2083,18 +2699,18 @@
         <v>0</v>
       </c>
       <c r="F60" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
       <c r="A61">
         <v>3</v>
       </c>
       <c r="B61" t="s">
-        <v>67</v>
+        <v>123</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>6</v>
+        <v>42</v>
       </c>
       <c r="D61">
         <v>173</v>
@@ -2104,18 +2720,18 @@
         <v>0</v>
       </c>
       <c r="F61" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
       <c r="A62">
         <v>3</v>
       </c>
       <c r="B62" t="s">
-        <v>68</v>
+        <v>125</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>6</v>
+        <v>42</v>
       </c>
       <c r="D62">
         <v>176</v>
@@ -2125,18 +2741,18 @@
         <v>0</v>
       </c>
       <c r="F62" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
       <c r="A63">
         <v>3</v>
       </c>
       <c r="B63" t="s">
-        <v>69</v>
+        <v>127</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>6</v>
+        <v>42</v>
       </c>
       <c r="D63">
         <v>179</v>
@@ -2146,18 +2762,18 @@
         <v>0</v>
       </c>
       <c r="F63" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
       <c r="A64">
         <v>1</v>
       </c>
       <c r="B64" t="s">
-        <v>70</v>
+        <v>129</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D64">
         <v>182</v>
@@ -2167,18 +2783,18 @@
         <v>0</v>
       </c>
       <c r="F64" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
       <c r="A65">
         <v>1</v>
       </c>
       <c r="B65" t="s">
-        <v>71</v>
+        <v>131</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D65">
         <v>183</v>
@@ -2188,18 +2804,18 @@
         <v>0</v>
       </c>
       <c r="F65" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
       <c r="A66">
         <v>1</v>
       </c>
       <c r="B66" t="s">
-        <v>72</v>
+        <v>133</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D66">
         <v>184</v>
@@ -2209,18 +2825,18 @@
         <v>0</v>
       </c>
       <c r="F66" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
       <c r="A67">
         <v>15</v>
       </c>
       <c r="B67" t="s">
-        <v>73</v>
+        <v>135</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D67">
         <v>185</v>
@@ -2230,18 +2846,18 @@
         <v>0</v>
       </c>
       <c r="F67" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
       <c r="A68">
         <v>1</v>
       </c>
       <c r="B68" t="s">
-        <v>74</v>
-      </c>
-      <c r="C68" s="1" t="s">
-        <v>5</v>
+        <v>137</v>
+      </c>
+      <c r="C68" t="s">
+        <v>42</v>
       </c>
       <c r="D68">
         <v>200</v>
@@ -2251,18 +2867,18 @@
         <v>0</v>
       </c>
       <c r="F68" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
       <c r="A69">
         <v>2</v>
       </c>
       <c r="B69" t="s">
-        <v>75</v>
+        <v>139</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D69">
         <v>201</v>
@@ -2272,18 +2888,18 @@
         <v>0</v>
       </c>
       <c r="F69" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
       <c r="A70">
         <v>6</v>
       </c>
       <c r="B70" t="s">
-        <v>76</v>
+        <v>141</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D70">
         <v>203</v>
@@ -2293,18 +2909,18 @@
         <v>0</v>
       </c>
       <c r="F70" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
       <c r="A71">
         <v>6</v>
       </c>
       <c r="B71" t="s">
-        <v>77</v>
+        <v>143</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D71">
         <v>209</v>
@@ -2314,18 +2930,18 @@
         <v>0</v>
       </c>
       <c r="F71" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
       <c r="A72">
         <v>4</v>
       </c>
       <c r="B72" t="s">
-        <v>78</v>
+        <v>145</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>6</v>
+        <v>42</v>
       </c>
       <c r="D72">
         <v>215</v>
@@ -2335,18 +2951,18 @@
         <v>0</v>
       </c>
       <c r="F72" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
       <c r="A73">
         <v>5</v>
       </c>
       <c r="B73" t="s">
-        <v>79</v>
+        <v>147</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>6</v>
+        <v>42</v>
       </c>
       <c r="D73">
         <v>219</v>
@@ -2355,19 +2971,20 @@
         <v>0</v>
       </c>
       <c r="F73" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="74" spans="2:3">
+      <c r="B74" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B74" t="s">
-        <v>1</v>
-      </c>
       <c r="C74" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>